--- a/scripts/ccf_registration/wb3_co2/WB3_Coronal_2_mosaic_positions_25um_final.xlsx
+++ b/scripts/ccf_registration/wb3_co2/WB3_Coronal_2_mosaic_positions_25um_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CCF_registration_final\wb3_co2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\230801_CCF_registration_final\wb3_co2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E52686D-9B7E-482F-A15A-C26C76AE7B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B035C46B-4020-4A93-8678-C19C1AD47B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="396">
   <si>
     <t>Notes</t>
   </si>
@@ -1222,6 +1222,9 @@
   </si>
   <si>
     <t>['SM_CTX']</t>
+  </si>
+  <si>
+    <t>area_thresh</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1403,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
@@ -1459,6 +1462,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1870,16 +1883,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D256EE3F-AD0C-4AB9-9364-A2EA48727512}">
-  <dimension ref="B1:AD151"/>
+  <dimension ref="B1:AE151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="14" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="14" customWidth="1"/>
@@ -1905,9 +1918,10 @@
     <col min="27" max="28" width="20.28515625" style="14" customWidth="1"/>
     <col min="29" max="29" width="21.42578125" style="14" customWidth="1"/>
     <col min="30" max="30" width="15" style="14" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>154</v>
       </c>
@@ -1995,8 +2009,11 @@
       <c r="AD1" s="14" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>292</v>
       </c>
@@ -2063,8 +2080,11 @@
       <c r="AD2" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>368</v>
       </c>
@@ -2128,8 +2148,11 @@
       <c r="AD3" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>296</v>
       </c>
@@ -2196,8 +2219,11 @@
       <c r="AD4" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>375</v>
       </c>
@@ -2261,8 +2287,11 @@
       <c r="AD5" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE5" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>300</v>
       </c>
@@ -2329,8 +2358,11 @@
       <c r="AD6" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE6" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>364</v>
       </c>
@@ -2394,8 +2426,11 @@
       <c r="AD7" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>281</v>
       </c>
@@ -2483,8 +2518,11 @@
       <c r="AD8" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>317</v>
       </c>
@@ -2569,8 +2607,11 @@
       <c r="AD9" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE9" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>288</v>
       </c>
@@ -2655,8 +2696,11 @@
       <c r="AD10" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE10" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>340</v>
       </c>
@@ -2743,8 +2787,11 @@
       <c r="AD11" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>289</v>
       </c>
@@ -2829,8 +2876,11 @@
       <c r="AD12" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>371</v>
       </c>
@@ -2915,8 +2965,11 @@
       <c r="AD13" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE13" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>294</v>
       </c>
@@ -3001,8 +3054,11 @@
       <c r="AD14" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>373</v>
       </c>
@@ -3087,8 +3143,11 @@
       <c r="AD15" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>299</v>
       </c>
@@ -3173,8 +3232,11 @@
       <c r="AD16" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>363</v>
       </c>
@@ -3259,8 +3321,11 @@
       <c r="AD17" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE17" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>283</v>
       </c>
@@ -3345,8 +3410,11 @@
       <c r="AD18" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE18" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>318</v>
       </c>
@@ -3431,8 +3499,11 @@
       <c r="AD19" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE19" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>287</v>
       </c>
@@ -3517,8 +3588,11 @@
       <c r="AD20" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE20" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>343</v>
       </c>
@@ -3603,8 +3677,11 @@
       <c r="AD21" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE21" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -3689,8 +3766,11 @@
       <c r="AD22" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE22" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>370</v>
       </c>
@@ -3778,8 +3858,11 @@
       <c r="AD23" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE23" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>295</v>
       </c>
@@ -3867,8 +3950,11 @@
       <c r="AD24" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE24" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>374</v>
       </c>
@@ -3953,100 +4039,106 @@
       <c r="AD25" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="AE25" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="18">
         <v>3</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="30" t="str">
         <f t="shared" si="0"/>
         <v>co2_sample3</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="18">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="G26" s="14">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14">
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
         <v>-5</v>
       </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="14">
+      <c r="J26" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="18">
         <v>1.3</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="18">
         <v>1.3</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="18">
         <v>8</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="18">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="18">
         <v>78</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="18">
         <v>25</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="18">
         <v>78</v>
       </c>
-      <c r="S26" s="28" t="s">
+      <c r="S26" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="T26" s="14" t="s">
+      <c r="T26" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="U26" s="25" t="s">
+      <c r="U26" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="33">
+        <v>30</v>
+      </c>
+      <c r="W26" s="18">
         <v>20</v>
       </c>
-      <c r="W26" s="14">
-        <v>20</v>
-      </c>
-      <c r="X26" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="14">
+      <c r="X26" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="18">
         <v>2000</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z26" s="18">
         <v>8</v>
       </c>
-      <c r="AA26" s="14">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="14">
-        <v>5</v>
-      </c>
-      <c r="AC26" s="14" t="s">
+      <c r="AA26" s="18">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="AD26" s="14">
+      <c r="AD26" s="18">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE26" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>362</v>
       </c>
@@ -4137,8 +4229,11 @@
       <c r="AD27" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE27" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>284</v>
       </c>
@@ -4223,8 +4318,11 @@
       <c r="AD28" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>319</v>
       </c>
@@ -4286,7 +4384,7 @@
         <v>392</v>
       </c>
       <c r="V29" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W29" s="14">
         <v>26</v>
@@ -4309,8 +4407,11 @@
       <c r="AD29" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE29" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>286</v>
       </c>
@@ -4395,8 +4496,11 @@
       <c r="AD30" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>342</v>
       </c>
@@ -4481,8 +4585,11 @@
       <c r="AD31" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE31" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>290</v>
       </c>
@@ -4573,8 +4680,11 @@
       <c r="AD32" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE32" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>369</v>
       </c>
@@ -4665,8 +4775,11 @@
       <c r="AD33" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE33" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>293</v>
       </c>
@@ -4751,8 +4864,11 @@
       <c r="AD34" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE34" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>372</v>
       </c>
@@ -4837,8 +4953,11 @@
       <c r="AD35" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE35" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>297</v>
       </c>
@@ -4923,8 +5042,11 @@
       <c r="AD36" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE36" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>361</v>
       </c>
@@ -5009,8 +5131,11 @@
       <c r="AD37" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE37" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>282</v>
       </c>
@@ -5098,8 +5223,11 @@
       <c r="AD38" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE38" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>320</v>
       </c>
@@ -5184,8 +5312,11 @@
       <c r="AD39" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE39" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>285</v>
       </c>
@@ -5270,8 +5401,11 @@
       <c r="AD40" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE40" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>341</v>
       </c>
@@ -5356,8 +5490,11 @@
       <c r="AD41" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE41" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>239</v>
       </c>
@@ -5442,8 +5579,11 @@
       <c r="AD42" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE42" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>367</v>
       </c>
@@ -5528,8 +5668,11 @@
       <c r="AD43" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE43" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>247</v>
       </c>
@@ -5617,8 +5760,11 @@
       <c r="AD44" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE44" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>349</v>
       </c>
@@ -5703,8 +5849,11 @@
       <c r="AD45" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE45" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>250</v>
       </c>
@@ -5789,8 +5938,11 @@
       <c r="AD46" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE46" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>307</v>
       </c>
@@ -5875,8 +6027,11 @@
       <c r="AD47" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE47" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>360</v>
       </c>
@@ -5961,8 +6116,11 @@
       <c r="AD48" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE48" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>244</v>
       </c>
@@ -6047,8 +6205,11 @@
       <c r="AD49" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE49" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>234</v>
       </c>
@@ -6133,8 +6294,11 @@
       <c r="AD50" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE50" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>338</v>
       </c>
@@ -6219,8 +6383,11 @@
       <c r="AD51" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE51" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>241</v>
       </c>
@@ -6305,8 +6472,11 @@
       <c r="AD52" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE52" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>366</v>
       </c>
@@ -6391,8 +6561,11 @@
       <c r="AD53" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE53" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>246</v>
       </c>
@@ -6477,8 +6650,11 @@
       <c r="AD54" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE54" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>347</v>
       </c>
@@ -6563,8 +6739,11 @@
       <c r="AD55" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE55" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>249</v>
       </c>
@@ -6649,8 +6828,11 @@
       <c r="AD56" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE56" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>306</v>
       </c>
@@ -6735,8 +6917,11 @@
       <c r="AD57" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE57" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>359</v>
       </c>
@@ -6821,8 +7006,11 @@
       <c r="AD58" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE58" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>243</v>
       </c>
@@ -6884,7 +7072,7 @@
         <v>393</v>
       </c>
       <c r="V59" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W59" s="14">
         <v>13</v>
@@ -6907,8 +7095,11 @@
       <c r="AD59" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE59" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>233</v>
       </c>
@@ -6970,7 +7161,7 @@
         <v>393</v>
       </c>
       <c r="V60" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W60" s="14">
         <v>13</v>
@@ -6993,8 +7184,11 @@
       <c r="AD60" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE60" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>339</v>
       </c>
@@ -7059,7 +7253,7 @@
         <v>393</v>
       </c>
       <c r="V61" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W61" s="14">
         <v>13</v>
@@ -7082,8 +7276,11 @@
       <c r="AD61" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE61" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>240</v>
       </c>
@@ -7168,8 +7365,11 @@
       <c r="AD62" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE62" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>365</v>
       </c>
@@ -7231,7 +7431,7 @@
         <v>393</v>
       </c>
       <c r="V63" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W63" s="14">
         <v>13</v>
@@ -7254,8 +7454,11 @@
       <c r="AD63" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE63" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>245</v>
       </c>
@@ -7340,8 +7543,11 @@
       <c r="AD64" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE64" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>348</v>
       </c>
@@ -7403,7 +7609,7 @@
         <v>393</v>
       </c>
       <c r="V65" s="29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W65" s="14">
         <v>13</v>
@@ -7426,8 +7632,11 @@
       <c r="AD65" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE65" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>248</v>
       </c>
@@ -7512,8 +7721,11 @@
       <c r="AD66" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE66" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>305</v>
       </c>
@@ -7598,8 +7810,11 @@
       <c r="AD67" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE67" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>358</v>
       </c>
@@ -7661,7 +7876,7 @@
         <v>393</v>
       </c>
       <c r="V68" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W68" s="14">
         <v>13</v>
@@ -7684,8 +7899,11 @@
       <c r="AD68" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE68" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>242</v>
       </c>
@@ -7773,8 +7991,11 @@
       <c r="AD69" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE69" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>232</v>
       </c>
@@ -7859,8 +8080,11 @@
       <c r="AD70" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE70" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>337</v>
       </c>
@@ -7945,8 +8169,11 @@
       <c r="AD71" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE71" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>302</v>
       </c>
@@ -8031,8 +8258,11 @@
       <c r="AD72" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE72" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>235</v>
       </c>
@@ -8117,8 +8347,11 @@
       <c r="AD73" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE73" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>304</v>
       </c>
@@ -8203,8 +8436,11 @@
       <c r="AD74" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE74" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>238</v>
       </c>
@@ -8292,8 +8528,11 @@
       <c r="AD75" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE75" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>229</v>
       </c>
@@ -8378,8 +8617,11 @@
       <c r="AD76" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE76" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>354</v>
       </c>
@@ -8464,8 +8706,11 @@
       <c r="AD77" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE77" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>231</v>
       </c>
@@ -8550,8 +8795,11 @@
       <c r="AD78" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE78" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>328</v>
       </c>
@@ -8613,7 +8861,7 @@
         <v>393</v>
       </c>
       <c r="V79" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W79" s="14">
         <v>13</v>
@@ -8636,8 +8884,11 @@
       <c r="AD79" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE79" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>226</v>
       </c>
@@ -8725,8 +8976,11 @@
       <c r="AD80" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE80" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>329</v>
       </c>
@@ -8788,7 +9042,7 @@
         <v>393</v>
       </c>
       <c r="V81" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W81" s="14">
         <v>13</v>
@@ -8811,8 +9065,11 @@
       <c r="AD81" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE81" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>301</v>
       </c>
@@ -8874,7 +9131,7 @@
         <v>393</v>
       </c>
       <c r="V82" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W82" s="14">
         <v>13</v>
@@ -8897,8 +9154,11 @@
       <c r="AD82" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE82" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>236</v>
       </c>
@@ -8983,8 +9243,11 @@
       <c r="AD83" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE83" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>303</v>
       </c>
@@ -9069,8 +9332,11 @@
       <c r="AD84" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE84" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>237</v>
       </c>
@@ -9155,8 +9421,11 @@
       <c r="AD85" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE85" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>228</v>
       </c>
@@ -9218,7 +9487,7 @@
         <v>393</v>
       </c>
       <c r="V86" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W86" s="14">
         <v>13</v>
@@ -9241,8 +9510,11 @@
       <c r="AD86" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE86" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>353</v>
       </c>
@@ -9327,8 +9599,11 @@
       <c r="AD87" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE87" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>230</v>
       </c>
@@ -9416,8 +9691,11 @@
       <c r="AD88" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE88" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>327</v>
       </c>
@@ -9502,8 +9780,11 @@
       <c r="AD89" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE89" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>227</v>
       </c>
@@ -9591,8 +9872,11 @@
       <c r="AD90" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE90" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>330</v>
       </c>
@@ -9680,8 +9964,11 @@
       <c r="AD91" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE91" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>254</v>
       </c>
@@ -9743,7 +10030,7 @@
         <v>393</v>
       </c>
       <c r="V92" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W92" s="14">
         <v>13</v>
@@ -9766,8 +10053,11 @@
       <c r="AD92" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE92" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>310</v>
       </c>
@@ -9829,7 +10119,7 @@
         <v>393</v>
       </c>
       <c r="V93" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W93" s="14">
         <v>13</v>
@@ -9852,8 +10142,11 @@
       <c r="AD93" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE93" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>259</v>
       </c>
@@ -9915,7 +10208,7 @@
         <v>393</v>
       </c>
       <c r="V94" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W94" s="14">
         <v>13</v>
@@ -9938,8 +10231,11 @@
       <c r="AD94" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE94" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>346</v>
       </c>
@@ -10024,8 +10320,11 @@
       <c r="AD95" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE95" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>264</v>
       </c>
@@ -10110,8 +10409,11 @@
       <c r="AD96" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE96" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>313</v>
       </c>
@@ -10196,8 +10498,11 @@
       <c r="AD97" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE97" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>252</v>
       </c>
@@ -10262,7 +10567,7 @@
         <v>393</v>
       </c>
       <c r="V98" s="29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W98" s="14">
         <v>13</v>
@@ -10285,8 +10590,11 @@
       <c r="AD98" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE98" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>351</v>
       </c>
@@ -10348,7 +10656,7 @@
         <v>393</v>
       </c>
       <c r="V99" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W99" s="14">
         <v>13</v>
@@ -10371,8 +10679,11 @@
       <c r="AD99" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE99" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>267</v>
       </c>
@@ -10457,8 +10768,11 @@
       <c r="AD100" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE100" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>333</v>
       </c>
@@ -10543,8 +10857,11 @@
       <c r="AD101" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE101" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>255</v>
       </c>
@@ -10629,8 +10946,11 @@
       <c r="AD102" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE102" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>309</v>
       </c>
@@ -10718,8 +11038,11 @@
       <c r="AD103" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE103" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>257</v>
       </c>
@@ -10807,8 +11130,11 @@
       <c r="AD104" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE104" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>344</v>
       </c>
@@ -10893,8 +11219,11 @@
       <c r="AD105" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE105" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>263</v>
       </c>
@@ -10979,8 +11308,11 @@
       <c r="AD106" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE106" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>312</v>
       </c>
@@ -11065,8 +11397,11 @@
       <c r="AD107" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE107" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>253</v>
       </c>
@@ -11151,8 +11486,11 @@
       <c r="AD108" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE108" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>352</v>
       </c>
@@ -11237,8 +11575,11 @@
       <c r="AD109" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE109" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>268</v>
       </c>
@@ -11323,8 +11664,11 @@
       <c r="AD110" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE110" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>331</v>
       </c>
@@ -11409,8 +11753,11 @@
       <c r="AD111" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE111" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>256</v>
       </c>
@@ -11495,8 +11842,11 @@
       <c r="AD112" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="113" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE112" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>308</v>
       </c>
@@ -11581,8 +11931,11 @@
       <c r="AD113" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="114" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE113" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>258</v>
       </c>
@@ -11667,8 +12020,11 @@
       <c r="AD114" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="115" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE114" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>345</v>
       </c>
@@ -11753,8 +12109,11 @@
       <c r="AD115" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="116" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE115" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>265</v>
       </c>
@@ -11842,8 +12201,11 @@
       <c r="AD116" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="117" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE116" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>311</v>
       </c>
@@ -11908,7 +12270,7 @@
         <v>393</v>
       </c>
       <c r="V117" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W117" s="14">
         <v>13</v>
@@ -11931,8 +12293,11 @@
       <c r="AD117" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="118" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE117" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>251</v>
       </c>
@@ -11994,7 +12359,7 @@
         <v>393</v>
       </c>
       <c r="V118" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W118" s="14">
         <v>13</v>
@@ -12017,8 +12382,11 @@
       <c r="AD118" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="119" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE118" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>350</v>
       </c>
@@ -12103,8 +12471,11 @@
       <c r="AD119" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="120" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE119" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>266</v>
       </c>
@@ -12189,8 +12560,11 @@
       <c r="AD120" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="121" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE120" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>332</v>
       </c>
@@ -12275,8 +12649,11 @@
       <c r="AD121" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="122" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE121" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>271</v>
       </c>
@@ -12361,8 +12738,11 @@
       <c r="AD122" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="123" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE122" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>323</v>
       </c>
@@ -12447,8 +12827,11 @@
       <c r="AD123" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="124" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE123" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>272</v>
       </c>
@@ -12533,8 +12916,11 @@
       <c r="AD124" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="125" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE124" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>314</v>
       </c>
@@ -12622,8 +13008,11 @@
       <c r="AD125" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="126" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE125" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>262</v>
       </c>
@@ -12708,8 +13097,11 @@
       <c r="AD126" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="127" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE126" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>357</v>
       </c>
@@ -12794,8 +13186,11 @@
       <c r="AD127" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="128" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE127" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>276</v>
       </c>
@@ -12880,8 +13275,11 @@
       <c r="AD128" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE128" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>325</v>
       </c>
@@ -12966,8 +13364,11 @@
       <c r="AD129" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE129" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>270</v>
       </c>
@@ -13052,8 +13453,11 @@
       <c r="AD130" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE130" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>322</v>
       </c>
@@ -13138,8 +13542,11 @@
       <c r="AD131" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE131" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>274</v>
       </c>
@@ -13227,8 +13634,11 @@
       <c r="AD132" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="133" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE132" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>315</v>
       </c>
@@ -13316,8 +13726,11 @@
       <c r="AD133" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="134" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE133" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>261</v>
       </c>
@@ -13402,8 +13815,11 @@
       <c r="AD134" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="135" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE134" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>356</v>
       </c>
@@ -13488,8 +13904,11 @@
       <c r="AD135" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="136" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE135" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>277</v>
       </c>
@@ -13577,8 +13996,11 @@
       <c r="AD136" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="137" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE136" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>326</v>
       </c>
@@ -13663,8 +14085,11 @@
       <c r="AD137" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="138" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE137" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>269</v>
       </c>
@@ -13749,8 +14174,11 @@
       <c r="AD138" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="139" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE138" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>321</v>
       </c>
@@ -13835,8 +14263,11 @@
       <c r="AD139" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="140" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE139" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>273</v>
       </c>
@@ -13921,8 +14352,11 @@
       <c r="AD140" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="141" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE140" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>316</v>
       </c>
@@ -13987,7 +14421,7 @@
         <v>393</v>
       </c>
       <c r="V141" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W141" s="14">
         <v>13</v>
@@ -14010,8 +14444,11 @@
       <c r="AD141" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="142" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE141" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>260</v>
       </c>
@@ -14099,8 +14536,11 @@
       <c r="AD142" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="143" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE142" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>355</v>
       </c>
@@ -14185,8 +14625,11 @@
       <c r="AD143" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="144" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE143" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>275</v>
       </c>
@@ -14274,8 +14717,11 @@
       <c r="AD144" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="145" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE144" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>324</v>
       </c>
@@ -14360,8 +14806,11 @@
       <c r="AD145" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="146" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE145" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>280</v>
       </c>
@@ -14449,8 +14898,11 @@
       <c r="AD146" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="147" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE146" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>334</v>
       </c>
@@ -14535,8 +14987,11 @@
       <c r="AD147" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="148" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE147" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>279</v>
       </c>
@@ -14624,8 +15079,11 @@
       <c r="AD148" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="149" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE148" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>335</v>
       </c>
@@ -14710,8 +15168,11 @@
       <c r="AD149" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="150" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE149" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>278</v>
       </c>
@@ -14799,8 +15260,11 @@
       <c r="AD150" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="151" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AE150" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>336</v>
       </c>
@@ -14875,6 +15339,9 @@
       </c>
       <c r="AD151" s="14">
         <v>0.01</v>
+      </c>
+      <c r="AE151" s="14">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -14886,7 +15353,7 @@
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:X1 Y1:Y26 B1:M1048576 Z1:XFD1048576 W2:X28 N2:T37 W29:Y151 N38:R40 T38:T40 N41:T42 N43:R151 T43:T151 L152:Y1048576">
+  <conditionalFormatting sqref="N1:X1 Y1:Y26 B1:M1048576 W2:X28 N2:T37 W29:Y151 N38:R40 T38:T40 N41:T42 N43:R151 T43:T151 L152:Y1048576 Z1:XFD1048576">
     <cfRule type="expression" dxfId="1" priority="15">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
